--- a/final_data_pipeline/output/311225longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/311225longform_elec_options_nowhp.xlsx
@@ -572,7 +572,7 @@
         <v>21</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J3">
         <v>8000</v>
@@ -587,10 +587,10 @@
         <v>675447.9473590076</v>
       </c>
       <c r="N3">
-        <v>1.005833333333333</v>
+        <v>1.016902460089711</v>
       </c>
       <c r="O3">
-        <v>1.034903846153846</v>
+        <v>1.046735940258763</v>
       </c>
       <c r="P3">
         <v>84.43099341987595</v>
